--- a/BalanceSheet/KHC_bal.xlsx
+++ b/BalanceSheet/KHC_bal.xlsx
@@ -5817,13 +5817,11 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B40" s="0" t="n">
+        <v>1223000000.0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1224000000.0</v>
+        <v>1223000000.0</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1223000000.0</v>
@@ -6291,7 +6289,7 @@
         <v>27375000000.0</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>27565000000.0</v>
+        <v>26965000000.0</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>28357000000.0</v>
@@ -6423,7 +6421,7 @@
         <v>32779000000.0</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>29845000000.0</v>
+        <v>29244000000.0</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>30672000000.0</v>
